--- a/FunctionalModules/Diagnose_Module/recomendations.xlsx
+++ b/FunctionalModules/Diagnose_Module/recomendations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vagan\Рабочий стол\Python\MedicalAnalyzer\FunctionalModules\Diagnose_Module\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edvso\OneDrive\Рабочий стол\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9E3D39-7038-4FE3-98C3-0C19356F3A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4806D28-D954-4084-A380-29DEE102E434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16365" yWindow="3075" windowWidth="11625" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Выражение</t>
   </si>
@@ -42,74 +42,104 @@
     <t>Значение</t>
   </si>
   <si>
-    <t>NEU/CD3&gt;3.63</t>
-  </si>
-  <si>
-    <t>избыток…</t>
-  </si>
-  <si>
-    <t>NEU/CD45+CD3+CD8+&gt;9.47</t>
-  </si>
-  <si>
-    <t>NEU/CD4&lt;5</t>
-  </si>
-  <si>
-    <t>NEU/CD8&lt;9/47</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>недостаток…</t>
-  </si>
-  <si>
-    <t>препарат 2</t>
-  </si>
-  <si>
-    <t>препарат 1</t>
-  </si>
-  <si>
-    <t>процедура 1</t>
-  </si>
-  <si>
-    <t>процедура 2</t>
-  </si>
-  <si>
-    <t>CD3</t>
+    <t>Т-хелперы (CD45+CD3+CD4+)</t>
   </si>
   <si>
     <t>CD4</t>
   </si>
   <si>
-    <t>CD8</t>
-  </si>
-  <si>
-    <t>CD19</t>
-  </si>
-  <si>
-    <t>CD45+CD3+</t>
-  </si>
-  <si>
-    <t>CD45+CD3+CD4+</t>
-  </si>
-  <si>
-    <t>CD45+CD3+CD8+</t>
-  </si>
-  <si>
-    <t>CD45+CD19+</t>
+    <r>
+      <t>CD4&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>0.7</t>
+    </r>
+  </si>
+  <si>
+    <t>Т-хелперы менее 0.7</t>
+  </si>
+  <si>
+    <t>Т-активин и аналоги</t>
+  </si>
+  <si>
+    <t>Только весна</t>
+  </si>
+  <si>
+    <t>Только осень</t>
+  </si>
+  <si>
+    <t>да</t>
+  </si>
+  <si>
+    <t>НСТ(сп)</t>
+  </si>
+  <si>
+    <t>НСТ-тест (спонтанный)</t>
+  </si>
+  <si>
+    <t>НСТ-тест (стимулированный)</t>
+  </si>
+  <si>
+    <t>НСТ(ст)</t>
+  </si>
+  <si>
+    <t>НСТ(ст)&gt;=НСТ(сп)*10</t>
+  </si>
+  <si>
+    <t>НСТ-спонтанный в десять или более раз меньше НСТ-стимулированного</t>
+  </si>
+  <si>
+    <t>при отсутствии диабета, назначать глюкозу и витамин С</t>
+  </si>
+  <si>
+    <t>ЦИК</t>
+  </si>
+  <si>
+    <t>Циркулирующие иммунные комплексы</t>
+  </si>
+  <si>
+    <t>ЦИК&lt;50</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFBCBEC4"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF6AAB73"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2AACB8"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -132,8 +162,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -414,22 +451,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" customWidth="1"/>
-    <col min="3" max="3" width="46.28515625" customWidth="1"/>
-    <col min="4" max="4" width="77.85546875" customWidth="1"/>
-    <col min="5" max="5" width="40.85546875" customWidth="1"/>
+    <col min="1" max="1" width="54.08984375" customWidth="1"/>
+    <col min="2" max="2" width="26.90625" customWidth="1"/>
+    <col min="3" max="3" width="24.6328125" customWidth="1"/>
+    <col min="4" max="4" width="19.08984375" customWidth="1"/>
+    <col min="5" max="5" width="39.26953125" customWidth="1"/>
+    <col min="6" max="6" width="14" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.90625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -445,76 +484,71 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="E5" s="1" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/FunctionalModules/Diagnose_Module/recomendations.xlsx
+++ b/FunctionalModules/Diagnose_Module/recomendations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edvso\OneDrive\Рабочий стол\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4806D28-D954-4084-A380-29DEE102E434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{01FBC4E4-0E10-4202-9D93-97FEC62A8C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1820" yWindow="4050" windowWidth="14400" windowHeight="7810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Выражение</t>
   </si>
@@ -90,9 +90,6 @@
     <t>НСТ(ст)</t>
   </si>
   <si>
-    <t>НСТ(ст)&gt;=НСТ(сп)*10</t>
-  </si>
-  <si>
     <t>НСТ-спонтанный в десять или более раз меньше НСТ-стимулированного</t>
   </si>
   <si>
@@ -106,13 +103,22 @@
   </si>
   <si>
     <t>ЦИК&lt;50</t>
+  </si>
+  <si>
+    <t>циркулирующие иммунные комплексы меньше пятидесяти</t>
+  </si>
+  <si>
+    <t>назначаются глюкоза и витамин С</t>
+  </si>
+  <si>
+    <t>НСТ(ст)&gt;=НСТ(сп)*10 and НСТ(сп)!=0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +143,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF2AACB8"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7A7E85"/>
       <name val="Courier New"/>
       <family val="3"/>
       <charset val="204"/>
@@ -170,7 +183,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -453,8 +468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -464,8 +479,8 @@
     <col min="3" max="3" width="24.6328125" customWidth="1"/>
     <col min="4" max="4" width="19.08984375" customWidth="1"/>
     <col min="5" max="5" width="39.26953125" customWidth="1"/>
-    <col min="6" max="6" width="14" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.90625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="13.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -484,10 +499,10 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -507,16 +522,18 @@
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -524,13 +541,20 @@
       <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" t="s">
         <v>12</v>
       </c>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>22</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
@@ -541,10 +565,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
